--- a/all_annotated/SPTN_Q4_2014_2.xlsx
+++ b/all_annotated/SPTN_Q4_2014_2.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/Desktop/SubjECTive-QA/Huzaifa-annotations/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D463BB5D-3380-C146-8445-3C6D65CB5DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -169,8 +175,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +239,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -279,7 +293,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,9 +325,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,6 +377,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,14 +570,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,7 +611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -579,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -591,7 +643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -611,10 +663,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -623,7 +675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -643,10 +695,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -655,7 +707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -675,10 +727,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -687,7 +739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -707,10 +759,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -719,7 +771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -739,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -751,7 +803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -771,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -783,7 +835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -803,10 +855,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -815,7 +867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -835,10 +887,10 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -847,7 +899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -867,10 +919,10 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -879,7 +931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -899,10 +951,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -911,7 +963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -931,19 +983,19 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -963,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -975,7 +1027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -992,13 +1044,13 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -1007,7 +1059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1039,7 +1091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1059,10 +1111,10 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -1071,7 +1123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1088,13 +1140,13 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>0</v>
